--- a/003_读取excel/books.xlsx
+++ b/003_读取excel/books.xlsx
@@ -2034,14 +2034,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="107.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
